--- a/데이터/중도탈락 학생 현황_학과별/예체능계열/전처리 후/2023_전문대_예체능계열.xlsx
+++ b/데이터/중도탈락 학생 현황_학과별/예체능계열/전처리 후/2023_전문대_예체능계열.xlsx
@@ -594,7 +594,7 @@
         <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -750,7 +750,7 @@
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>7.41</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="9">
@@ -789,7 +789,7 @@
         <v>5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.71</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="10">
@@ -828,7 +828,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -867,7 +867,7 @@
         <v>7</v>
       </c>
       <c r="I11" t="n">
-        <v>17.44</v>
+        <v>8.140000000000001</v>
       </c>
     </row>
     <row r="12">
@@ -945,7 +945,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>15.69</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="14">
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1023,7 +1023,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>19.35</v>
+        <v>9.68</v>
       </c>
     </row>
     <row r="16">
@@ -1101,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>15.38</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="18">
@@ -1218,7 +1218,7 @@
         <v>5</v>
       </c>
       <c r="I20" t="n">
-        <v>5.5</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="21">
@@ -1296,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>8.890000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>44.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1374,7 +1374,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1530,7 +1530,7 @@
         <v>6</v>
       </c>
       <c r="I28" t="n">
-        <v>14.11</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="29">
@@ -1569,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="I29" t="n">
-        <v>15.79</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="30">
@@ -1607,9 +1607,7 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1647,7 +1645,7 @@
         <v>5</v>
       </c>
       <c r="I31" t="n">
-        <v>12.64</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="32">
@@ -1686,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1763,9 +1761,7 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1803,7 +1799,7 @@
         <v>1</v>
       </c>
       <c r="I35" t="n">
-        <v>10.34</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="36">
@@ -1842,7 +1838,7 @@
         <v>12</v>
       </c>
       <c r="I36" t="n">
-        <v>10.83</v>
+        <v>7.64</v>
       </c>
     </row>
     <row r="37">
@@ -1920,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2036,8 +2032,10 @@
       <c r="H41" t="n">
         <v>2</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2075,8 +2073,10 @@
       <c r="H42" t="n">
         <v>6</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2115,7 +2115,7 @@
         <v>2</v>
       </c>
       <c r="I43" t="n">
-        <v>5.56</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="44">
@@ -2154,7 +2154,7 @@
         <v>4</v>
       </c>
       <c r="I44" t="n">
-        <v>8.33</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="45">
@@ -2192,8 +2192,10 @@
       <c r="H45" t="n">
         <v>1</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="46">
@@ -2271,7 +2273,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>8.699999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2310,7 +2312,7 @@
         <v>9</v>
       </c>
       <c r="I48" t="n">
-        <v>5.6</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="49">
@@ -2349,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="I49" t="n">
-        <v>14.94</v>
+        <v>10.34</v>
       </c>
     </row>
     <row r="50">
@@ -2426,8 +2428,10 @@
       <c r="H51" t="n">
         <v>1</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2465,8 +2469,10 @@
       <c r="H52" t="n">
         <v>1</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="53">
@@ -2504,8 +2510,10 @@
       <c r="H53" t="n">
         <v>2</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="54">
@@ -2543,8 +2551,10 @@
       <c r="H54" t="n">
         <v>6</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2582,8 +2592,10 @@
       <c r="H55" t="n">
         <v>2</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="56">
@@ -2621,8 +2633,10 @@
       <c r="H56" t="n">
         <v>2</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2700,7 +2714,7 @@
         <v>2</v>
       </c>
       <c r="I58" t="n">
-        <v>3.43</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="59">
@@ -2778,7 +2792,7 @@
         <v>4</v>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61">
@@ -2856,7 +2870,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>28.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3012,7 +3026,7 @@
         <v>9</v>
       </c>
       <c r="I66" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="67">
@@ -3051,7 +3065,7 @@
         <v>3</v>
       </c>
       <c r="I67" t="n">
-        <v>7.81</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="68">
@@ -3129,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>78.56999999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -3168,7 +3182,7 @@
         <v>12</v>
       </c>
       <c r="I70" t="n">
-        <v>11.72</v>
+        <v>8.279999999999999</v>
       </c>
     </row>
     <row r="71">
@@ -3207,7 +3221,7 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3324,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>7.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -3441,7 +3455,7 @@
         <v>2</v>
       </c>
       <c r="I77" t="n">
-        <v>87.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="78">
@@ -3519,7 +3533,7 @@
         <v>2</v>
       </c>
       <c r="I79" t="n">
-        <v>26.92</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="80">
@@ -3558,7 +3572,7 @@
         <v>1</v>
       </c>
       <c r="I80" t="n">
-        <v>23.08</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="81">
@@ -3597,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -3636,7 +3650,7 @@
         <v>14</v>
       </c>
       <c r="I82" t="n">
-        <v>5.95</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="83">
@@ -3714,7 +3728,7 @@
         <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>9.880000000000001</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="85">
@@ -3753,7 +3767,7 @@
         <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>7.89</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="86">
@@ -3909,7 +3923,7 @@
         <v>8</v>
       </c>
       <c r="I89" t="n">
-        <v>11.83</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="90">
@@ -3987,7 +4001,7 @@
         <v>3</v>
       </c>
       <c r="I91" t="n">
-        <v>16.39</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="92">
@@ -4026,7 +4040,7 @@
         <v>1</v>
       </c>
       <c r="I92" t="n">
-        <v>11.86</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="93">
@@ -4143,7 +4157,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>10.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -4181,9 +4195,7 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -4260,7 +4272,7 @@
         <v>10</v>
       </c>
       <c r="I98" t="n">
-        <v>5.5</v>
+        <v>4.59</v>
       </c>
     </row>
     <row r="99">
@@ -4338,7 +4350,7 @@
         <v>10</v>
       </c>
       <c r="I100" t="n">
-        <v>11.38</v>
+        <v>5.99</v>
       </c>
     </row>
     <row r="101">
@@ -4415,9 +4427,7 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4494,7 +4504,7 @@
         <v>5</v>
       </c>
       <c r="I104" t="n">
-        <v>15.75</v>
+        <v>3.94</v>
       </c>
     </row>
     <row r="105">
@@ -4533,7 +4543,7 @@
         <v>3</v>
       </c>
       <c r="I105" t="n">
-        <v>7.02</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="106">
@@ -4572,7 +4582,7 @@
         <v>2</v>
       </c>
       <c r="I106" t="n">
-        <v>7.23</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="107">
@@ -4611,7 +4621,7 @@
         <v>5</v>
       </c>
       <c r="I107" t="n">
-        <v>5.75</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="108">
@@ -4650,7 +4660,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
@@ -4689,7 +4699,7 @@
         <v>6</v>
       </c>
       <c r="I109" t="n">
-        <v>13.1</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="110">
@@ -4728,7 +4738,7 @@
         <v>2</v>
       </c>
       <c r="I110" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="111">
@@ -4806,7 +4816,7 @@
         <v>2</v>
       </c>
       <c r="I112" t="n">
-        <v>8</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="113">
@@ -4845,7 +4855,7 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
@@ -4884,7 +4894,7 @@
         <v>7</v>
       </c>
       <c r="I114" t="n">
-        <v>8.25</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="115">
@@ -5001,7 +5011,7 @@
         <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>3.53</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="118">
@@ -5040,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>37.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
@@ -5079,7 +5089,7 @@
         <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>6.98</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="120">
@@ -5118,7 +5128,7 @@
         <v>3</v>
       </c>
       <c r="I120" t="n">
-        <v>11.65</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="121">
@@ -5157,7 +5167,7 @@
         <v>2</v>
       </c>
       <c r="I121" t="n">
-        <v>3.09</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="122">
@@ -5196,7 +5206,7 @@
         <v>11</v>
       </c>
       <c r="I122" t="n">
-        <v>10.59</v>
+        <v>6.47</v>
       </c>
     </row>
     <row r="123">
@@ -5274,7 +5284,7 @@
         <v>5</v>
       </c>
       <c r="I124" t="n">
-        <v>6.85</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="125">
@@ -5313,7 +5323,7 @@
         <v>5</v>
       </c>
       <c r="I125" t="n">
-        <v>5.84</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="126">
@@ -5391,7 +5401,7 @@
         <v>10</v>
       </c>
       <c r="I127" t="n">
-        <v>5.11</v>
+        <v>3.65</v>
       </c>
     </row>
     <row r="128">
@@ -5430,7 +5440,7 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129">
@@ -5469,7 +5479,7 @@
         <v>21</v>
       </c>
       <c r="I129" t="n">
-        <v>7.44</v>
+        <v>5.79</v>
       </c>
     </row>
     <row r="130">
@@ -5586,7 +5596,7 @@
         <v>10</v>
       </c>
       <c r="I132" t="n">
-        <v>7.97</v>
+        <v>3.98</v>
       </c>
     </row>
     <row r="133">
@@ -5664,7 +5674,7 @@
         <v>5</v>
       </c>
       <c r="I134" t="n">
-        <v>3.59</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="135">
@@ -5703,7 +5713,7 @@
         <v>11</v>
       </c>
       <c r="I135" t="n">
-        <v>5.02</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="136">
@@ -5742,7 +5752,7 @@
         <v>1</v>
       </c>
       <c r="I136" t="n">
-        <v>4.44</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="137">
@@ -5781,7 +5791,7 @@
         <v>14</v>
       </c>
       <c r="I137" t="n">
-        <v>11.22</v>
+        <v>6.83</v>
       </c>
     </row>
     <row r="138">
@@ -5898,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>25</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="141">
@@ -5937,7 +5947,7 @@
         <v>11</v>
       </c>
       <c r="I141" t="n">
-        <v>5.32</v>
+        <v>4.18</v>
       </c>
     </row>
     <row r="142">
@@ -5976,7 +5986,7 @@
         <v>12</v>
       </c>
       <c r="I142" t="n">
-        <v>5.13</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="143">
@@ -6054,7 +6064,7 @@
         <v>2</v>
       </c>
       <c r="I144" t="n">
-        <v>2.42</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="145">
@@ -6132,7 +6142,7 @@
         <v>3</v>
       </c>
       <c r="I146" t="n">
-        <v>5.71</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="147">
@@ -6210,7 +6220,7 @@
         <v>12</v>
       </c>
       <c r="I148" t="n">
-        <v>11.96</v>
+        <v>6.52</v>
       </c>
     </row>
     <row r="149">
@@ -6288,7 +6298,7 @@
         <v>11</v>
       </c>
       <c r="I150" t="n">
-        <v>6.25</v>
+        <v>4.58</v>
       </c>
     </row>
     <row r="151">
@@ -6444,7 +6454,7 @@
         <v>11</v>
       </c>
       <c r="I154" t="n">
-        <v>14.05</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="155">
@@ -6678,7 +6688,7 @@
         <v>18</v>
       </c>
       <c r="I160" t="n">
-        <v>48.72</v>
+        <v>46.15</v>
       </c>
     </row>
     <row r="161">
@@ -6717,7 +6727,7 @@
         <v>3</v>
       </c>
       <c r="I161" t="n">
-        <v>16.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="162">
@@ -6756,7 +6766,7 @@
         <v>10</v>
       </c>
       <c r="I162" t="n">
-        <v>40.74</v>
+        <v>37.04</v>
       </c>
     </row>
     <row r="163">
@@ -6795,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -6834,7 +6844,7 @@
         <v>1</v>
       </c>
       <c r="I164" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="165">
@@ -7029,7 +7039,7 @@
         <v>1</v>
       </c>
       <c r="I169" t="n">
-        <v>8.640000000000001</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="170">
@@ -7068,7 +7078,7 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -7107,7 +7117,7 @@
         <v>2</v>
       </c>
       <c r="I171" t="n">
-        <v>6.86</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="172">
@@ -7497,7 +7507,7 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
@@ -7536,7 +7546,7 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>45.45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
@@ -7614,7 +7624,7 @@
         <v>9</v>
       </c>
       <c r="I184" t="n">
-        <v>21.43</v>
+        <v>9.18</v>
       </c>
     </row>
     <row r="185">
@@ -7653,7 +7663,7 @@
         <v>5</v>
       </c>
       <c r="I185" t="n">
-        <v>21.62</v>
+        <v>13.51</v>
       </c>
     </row>
     <row r="186">
@@ -7692,7 +7702,7 @@
         <v>2</v>
       </c>
       <c r="I186" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="187">
@@ -7731,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -7809,7 +7819,7 @@
         <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>7.69</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="190">
@@ -7848,7 +7858,7 @@
         <v>1</v>
       </c>
       <c r="I190" t="n">
-        <v>8.33</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="191">
@@ -7887,7 +7897,7 @@
         <v>7</v>
       </c>
       <c r="I191" t="n">
-        <v>13.92</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="192">
@@ -7926,7 +7936,7 @@
         <v>1</v>
       </c>
       <c r="I192" t="n">
-        <v>5.26</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="193">
@@ -8004,7 +8014,7 @@
         <v>3</v>
       </c>
       <c r="I194" t="n">
-        <v>10.2</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="195">
@@ -8043,7 +8053,7 @@
         <v>1</v>
       </c>
       <c r="I195" t="n">
-        <v>12.96</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="196">
@@ -8082,7 +8092,7 @@
         <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>9.619999999999999</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="197">
@@ -8121,7 +8131,7 @@
         <v>16</v>
       </c>
       <c r="I197" t="n">
-        <v>13.83</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="198">
@@ -8160,7 +8170,7 @@
         <v>1</v>
       </c>
       <c r="I198" t="n">
-        <v>18.18</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="199">
@@ -8199,7 +8209,7 @@
         <v>1</v>
       </c>
       <c r="I199" t="n">
-        <v>18.52</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="200">
@@ -8238,7 +8248,7 @@
         <v>1</v>
       </c>
       <c r="I200" t="n">
-        <v>33.33</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="201">
@@ -8277,7 +8287,7 @@
         <v>1</v>
       </c>
       <c r="I201" t="n">
-        <v>7.41</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="202">
@@ -8355,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>1.37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
@@ -8589,7 +8599,7 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>28.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
@@ -8666,9 +8676,7 @@
       <c r="H211" t="n">
         <v>0</v>
       </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+      <c r="I211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="n">
@@ -8705,9 +8713,7 @@
       <c r="H212" t="n">
         <v>0</v>
       </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+      <c r="I212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
@@ -8862,7 +8868,7 @@
         <v>8</v>
       </c>
       <c r="I216" t="n">
-        <v>23.6</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="217">
@@ -8901,7 +8907,7 @@
         <v>5</v>
       </c>
       <c r="I217" t="n">
-        <v>32.14</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="218">
@@ -8940,7 +8946,7 @@
         <v>2</v>
       </c>
       <c r="I218" t="n">
-        <v>7.83</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="219">
@@ -8979,7 +8985,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -9018,7 +9024,7 @@
         <v>3</v>
       </c>
       <c r="I220" t="n">
-        <v>8.199999999999999</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="221">
@@ -9057,7 +9063,7 @@
         <v>3</v>
       </c>
       <c r="I221" t="n">
-        <v>12.82</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="222">
@@ -9096,7 +9102,7 @@
         <v>4</v>
       </c>
       <c r="I222" t="n">
-        <v>8.77</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="223">
@@ -9134,9 +9140,7 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
+      <c r="I223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="n">
@@ -9174,7 +9178,7 @@
         <v>1</v>
       </c>
       <c r="I224" t="n">
-        <v>3.53</v>
+        <v>1.18</v>
       </c>
     </row>
     <row r="225">
@@ -9213,7 +9217,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
@@ -9252,7 +9256,7 @@
         <v>3</v>
       </c>
       <c r="I226" t="n">
-        <v>34.25</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="227">
@@ -9291,7 +9295,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
@@ -9369,7 +9373,7 @@
         <v>2</v>
       </c>
       <c r="I229" t="n">
-        <v>33.66</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="230">
@@ -9408,7 +9412,7 @@
         <v>8</v>
       </c>
       <c r="I230" t="n">
-        <v>12.6</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="231">
@@ -9447,7 +9451,7 @@
         <v>1</v>
       </c>
       <c r="I231" t="n">
-        <v>6.25</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="232">
@@ -9486,7 +9490,7 @@
         <v>2</v>
       </c>
       <c r="I232" t="n">
-        <v>52.94</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="233">
@@ -9525,7 +9529,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
@@ -9563,9 +9567,7 @@
       <c r="H234" t="n">
         <v>0</v>
       </c>
-      <c r="I234" t="n">
-        <v>0</v>
-      </c>
+      <c r="I234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" t="n">
@@ -9642,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
@@ -9681,7 +9683,7 @@
         <v>1</v>
       </c>
       <c r="I237" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
@@ -9798,7 +9800,7 @@
         <v>2</v>
       </c>
       <c r="I240" t="n">
-        <v>42.42</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="241">
@@ -9837,7 +9839,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>66.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
@@ -9915,7 +9917,7 @@
         <v>7</v>
       </c>
       <c r="I243" t="n">
-        <v>6.05</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="244">
@@ -9954,7 +9956,7 @@
         <v>1</v>
       </c>
       <c r="I244" t="n">
-        <v>5.36</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="245">
@@ -9993,7 +9995,7 @@
         <v>11</v>
       </c>
       <c r="I245" t="n">
-        <v>36.76</v>
+        <v>16.18</v>
       </c>
     </row>
     <row r="246">
@@ -10071,7 +10073,7 @@
         <v>1</v>
       </c>
       <c r="I247" t="n">
-        <v>8.33</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="248">
@@ -10110,7 +10112,7 @@
         <v>7</v>
       </c>
       <c r="I248" t="n">
-        <v>25.71</v>
+        <v>20</v>
       </c>
     </row>
     <row r="249">
@@ -10149,7 +10151,7 @@
         <v>3</v>
       </c>
       <c r="I249" t="n">
-        <v>8.789999999999999</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="250">
@@ -10188,7 +10190,7 @@
         <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="251">
@@ -10227,7 +10229,7 @@
         <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>14.29</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="252">
@@ -10266,7 +10268,7 @@
         <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>15.38</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="253">
@@ -10305,7 +10307,7 @@
         <v>3</v>
       </c>
       <c r="I253" t="n">
-        <v>18.97</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="254">
@@ -10344,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>7.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
@@ -10383,7 +10385,7 @@
         <v>3</v>
       </c>
       <c r="I255" t="n">
-        <v>13.95</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="256">
@@ -10461,7 +10463,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="n">
-        <v>23.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
@@ -10539,7 +10541,7 @@
         <v>1</v>
       </c>
       <c r="I259" t="n">
-        <v>6.25</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="260">
@@ -10578,7 +10580,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
@@ -10617,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="n">
-        <v>10.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
@@ -10656,7 +10658,7 @@
         <v>2</v>
       </c>
       <c r="I262" t="n">
-        <v>20</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="263">
@@ -10695,7 +10697,7 @@
         <v>1</v>
       </c>
       <c r="I263" t="n">
-        <v>14.71</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="264">
@@ -10773,7 +10775,7 @@
         <v>5</v>
       </c>
       <c r="I265" t="n">
-        <v>16.67</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="266">
@@ -10812,7 +10814,7 @@
         <v>2</v>
       </c>
       <c r="I266" t="n">
-        <v>20.56</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="267">
@@ -10851,7 +10853,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="n">
-        <v>23.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
@@ -10890,7 +10892,7 @@
         <v>9</v>
       </c>
       <c r="I268" t="n">
-        <v>14.52</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="269">
@@ -10929,7 +10931,7 @@
         <v>7</v>
       </c>
       <c r="I269" t="n">
-        <v>11.49</v>
+        <v>8.050000000000001</v>
       </c>
     </row>
     <row r="270">
@@ -10968,7 +10970,7 @@
         <v>2</v>
       </c>
       <c r="I270" t="n">
-        <v>37.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="271">
@@ -11007,7 +11009,7 @@
         <v>0</v>
       </c>
       <c r="I271" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
@@ -11085,7 +11087,7 @@
         <v>1</v>
       </c>
       <c r="I273" t="n">
-        <v>6.12</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="274">
@@ -11124,7 +11126,7 @@
         <v>1</v>
       </c>
       <c r="I274" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="275">
@@ -11163,7 +11165,7 @@
         <v>0</v>
       </c>
       <c r="I275" t="n">
-        <v>22.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
@@ -11202,7 +11204,7 @@
         <v>7</v>
       </c>
       <c r="I276" t="n">
-        <v>18.37</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="277">
@@ -11241,7 +11243,7 @@
         <v>4</v>
       </c>
       <c r="I277" t="n">
-        <v>9.41</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="278">
@@ -11318,9 +11320,7 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" t="n">
@@ -11358,7 +11358,7 @@
         <v>7</v>
       </c>
       <c r="I280" t="n">
-        <v>8.199999999999999</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="281">
@@ -11397,7 +11397,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
@@ -11553,7 +11553,7 @@
         <v>7</v>
       </c>
       <c r="I285" t="n">
-        <v>14.29</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="286">
@@ -11592,7 +11592,7 @@
         <v>6</v>
       </c>
       <c r="I286" t="n">
-        <v>23.29</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="287">
@@ -11631,7 +11631,7 @@
         <v>2</v>
       </c>
       <c r="I287" t="n">
-        <v>20</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="288">
@@ -11670,7 +11670,7 @@
         <v>2</v>
       </c>
       <c r="I288" t="n">
-        <v>19.51</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="289">
@@ -11709,7 +11709,7 @@
         <v>0</v>
       </c>
       <c r="I289" t="n">
-        <v>15.31</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
@@ -11748,7 +11748,7 @@
         <v>1</v>
       </c>
       <c r="I290" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="291">
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="I291" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
@@ -11826,7 +11826,7 @@
         <v>4</v>
       </c>
       <c r="I292" t="n">
-        <v>11.11</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="293">
@@ -11865,7 +11865,7 @@
         <v>0</v>
       </c>
       <c r="I293" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
@@ -11904,7 +11904,7 @@
         <v>2</v>
       </c>
       <c r="I294" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="295">
@@ -11943,7 +11943,7 @@
         <v>1</v>
       </c>
       <c r="I295" t="n">
-        <v>10.42</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="296">
@@ -11982,7 +11982,7 @@
         <v>12</v>
       </c>
       <c r="I296" t="n">
-        <v>21.34</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="297">
@@ -12021,7 +12021,7 @@
         <v>3</v>
       </c>
       <c r="I297" t="n">
-        <v>10.26</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="298">
@@ -12060,7 +12060,7 @@
         <v>5</v>
       </c>
       <c r="I298" t="n">
-        <v>7.77</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="299">
@@ -12099,7 +12099,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
@@ -12177,7 +12177,7 @@
         <v>6</v>
       </c>
       <c r="I301" t="n">
-        <v>9.199999999999999</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="302">
@@ -12216,7 +12216,7 @@
         <v>0</v>
       </c>
       <c r="I302" t="n">
-        <v>3.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
@@ -12255,7 +12255,7 @@
         <v>0</v>
       </c>
       <c r="I303" t="n">
-        <v>2.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
@@ -12333,7 +12333,7 @@
         <v>7</v>
       </c>
       <c r="I305" t="n">
-        <v>7.34</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="306">
@@ -12372,7 +12372,7 @@
         <v>0</v>
       </c>
       <c r="I306" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
@@ -12411,7 +12411,7 @@
         <v>4</v>
       </c>
       <c r="I307" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="308">
@@ -12528,7 +12528,7 @@
         <v>6</v>
       </c>
       <c r="I310" t="n">
-        <v>14.06</v>
+        <v>4.69</v>
       </c>
     </row>
     <row r="311">
@@ -12606,7 +12606,7 @@
         <v>2</v>
       </c>
       <c r="I312" t="n">
-        <v>9.380000000000001</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="313">
@@ -12645,7 +12645,7 @@
         <v>3</v>
       </c>
       <c r="I313" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="314">
@@ -12684,7 +12684,7 @@
         <v>3</v>
       </c>
       <c r="I314" t="n">
-        <v>4.31</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="315">
@@ -12801,7 +12801,7 @@
         <v>4</v>
       </c>
       <c r="I317" t="n">
-        <v>14.29</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="318">
@@ -12879,7 +12879,7 @@
         <v>0</v>
       </c>
       <c r="I319" t="n">
-        <v>9.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
@@ -12918,7 +12918,7 @@
         <v>3</v>
       </c>
       <c r="I320" t="n">
-        <v>15.07</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="321">
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="I322" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
@@ -13035,7 +13035,7 @@
         <v>10</v>
       </c>
       <c r="I323" t="n">
-        <v>11.92</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="324">
@@ -13191,7 +13191,7 @@
         <v>10</v>
       </c>
       <c r="I327" t="n">
-        <v>8.449999999999999</v>
+        <v>7.04</v>
       </c>
     </row>
     <row r="328">
@@ -13230,7 +13230,7 @@
         <v>19</v>
       </c>
       <c r="I328" t="n">
-        <v>15.66</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="329">
@@ -13269,7 +13269,7 @@
         <v>2</v>
       </c>
       <c r="I329" t="n">
-        <v>4.44</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="330">
@@ -13308,7 +13308,7 @@
         <v>5</v>
       </c>
       <c r="I330" t="n">
-        <v>4.35</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="331">
@@ -13347,7 +13347,7 @@
         <v>8</v>
       </c>
       <c r="I331" t="n">
-        <v>7.52</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="332">
@@ -13386,7 +13386,7 @@
         <v>6</v>
       </c>
       <c r="I332" t="n">
-        <v>5.48</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="333">
@@ -13425,7 +13425,7 @@
         <v>3</v>
       </c>
       <c r="I333" t="n">
-        <v>6.25</v>
+        <v>3.75</v>
       </c>
     </row>
     <row r="334">
@@ -13503,7 +13503,7 @@
         <v>8</v>
       </c>
       <c r="I335" t="n">
-        <v>6.25</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="336">
@@ -13581,7 +13581,7 @@
         <v>0</v>
       </c>
       <c r="I337" t="n">
-        <v>1.23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -13659,7 +13659,7 @@
         <v>7</v>
       </c>
       <c r="I339" t="n">
-        <v>5.26</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="340">
@@ -13737,7 +13737,7 @@
         <v>12</v>
       </c>
       <c r="I341" t="n">
-        <v>6.05</v>
+        <v>5.58</v>
       </c>
     </row>
     <row r="342">
@@ -13815,7 +13815,7 @@
         <v>6</v>
       </c>
       <c r="I343" t="n">
-        <v>7.76</v>
+        <v>5.17</v>
       </c>
     </row>
     <row r="344">
@@ -13854,7 +13854,7 @@
         <v>7</v>
       </c>
       <c r="I344" t="n">
-        <v>9.16</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="345">
@@ -13893,7 +13893,7 @@
         <v>2</v>
       </c>
       <c r="I345" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="346">
@@ -13971,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
@@ -14010,7 +14010,7 @@
         <v>0</v>
       </c>
       <c r="I348" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
@@ -14049,7 +14049,7 @@
         <v>0</v>
       </c>
       <c r="I349" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
@@ -14088,7 +14088,7 @@
         <v>0</v>
       </c>
       <c r="I350" t="n">
-        <v>3.59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
@@ -14166,7 +14166,7 @@
         <v>8</v>
       </c>
       <c r="I352" t="n">
-        <v>5.76</v>
+        <v>4.19</v>
       </c>
     </row>
     <row r="353">
@@ -14244,7 +14244,7 @@
         <v>27</v>
       </c>
       <c r="I354" t="n">
-        <v>7.18</v>
+        <v>6.46</v>
       </c>
     </row>
     <row r="355">
@@ -14283,7 +14283,7 @@
         <v>11</v>
       </c>
       <c r="I355" t="n">
-        <v>6.54</v>
+        <v>5.14</v>
       </c>
     </row>
     <row r="356">
@@ -14322,7 +14322,7 @@
         <v>13</v>
       </c>
       <c r="I356" t="n">
-        <v>4.99</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="357">
@@ -14439,7 +14439,7 @@
         <v>9</v>
       </c>
       <c r="I359" t="n">
-        <v>9.32</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="360">
@@ -14478,7 +14478,7 @@
         <v>1</v>
       </c>
       <c r="I360" t="n">
-        <v>12.5</v>
+        <v>4.17</v>
       </c>
     </row>
     <row r="361">
@@ -14517,7 +14517,7 @@
         <v>10</v>
       </c>
       <c r="I361" t="n">
-        <v>9.76</v>
+        <v>8.130000000000001</v>
       </c>
     </row>
     <row r="362">
@@ -14634,7 +14634,7 @@
         <v>3</v>
       </c>
       <c r="I364" t="n">
-        <v>4.26</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="365">
@@ -14673,7 +14673,7 @@
         <v>2</v>
       </c>
       <c r="I365" t="n">
-        <v>28.57</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="366">
@@ -14789,8 +14789,10 @@
       <c r="H368" t="n">
         <v>2</v>
       </c>
-      <c r="I368" t="n">
-        <v>0</v>
+      <c r="I368" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="369">
@@ -14829,7 +14831,7 @@
         <v>1</v>
       </c>
       <c r="I369" t="n">
-        <v>5.77</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="370">
@@ -14868,7 +14870,7 @@
         <v>0</v>
       </c>
       <c r="I370" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
@@ -14946,7 +14948,7 @@
         <v>0</v>
       </c>
       <c r="I372" t="n">
-        <v>8.51</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
@@ -14985,7 +14987,7 @@
         <v>0</v>
       </c>
       <c r="I373" t="n">
-        <v>2.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
@@ -15063,7 +15065,7 @@
         <v>3</v>
       </c>
       <c r="I375" t="n">
-        <v>9.09</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="376">
@@ -15141,7 +15143,7 @@
         <v>7</v>
       </c>
       <c r="I377" t="n">
-        <v>14.97</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="378">
@@ -15180,7 +15182,7 @@
         <v>5</v>
       </c>
       <c r="I378" t="n">
-        <v>32.14</v>
+        <v>17.86</v>
       </c>
     </row>
     <row r="379">
@@ -15258,7 +15260,7 @@
         <v>6</v>
       </c>
       <c r="I380" t="n">
-        <v>18.42</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="381">
@@ -15297,7 +15299,7 @@
         <v>2</v>
       </c>
       <c r="I381" t="n">
-        <v>14.29</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="382">
@@ -15336,7 +15338,7 @@
         <v>3</v>
       </c>
       <c r="I382" t="n">
-        <v>14.52</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="383">
@@ -15375,7 +15377,7 @@
         <v>17</v>
       </c>
       <c r="I383" t="n">
-        <v>17.83</v>
+        <v>6.59</v>
       </c>
     </row>
     <row r="384">
@@ -15414,7 +15416,7 @@
         <v>12</v>
       </c>
       <c r="I384" t="n">
-        <v>30.25</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="385">
@@ -15491,8 +15493,10 @@
       <c r="H386" t="n">
         <v>7</v>
       </c>
-      <c r="I386" t="n">
-        <v>0</v>
+      <c r="I386" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="387">
@@ -15530,8 +15534,10 @@
       <c r="H387" t="n">
         <v>7</v>
       </c>
-      <c r="I387" t="n">
-        <v>0</v>
+      <c r="I387" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="388">
@@ -15569,8 +15575,10 @@
       <c r="H388" t="n">
         <v>1</v>
       </c>
-      <c r="I388" t="n">
-        <v>0</v>
+      <c r="I388" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="389">
@@ -15608,8 +15616,10 @@
       <c r="H389" t="n">
         <v>1</v>
       </c>
-      <c r="I389" t="n">
-        <v>0</v>
+      <c r="I389" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="390">
@@ -15647,8 +15657,10 @@
       <c r="H390" t="n">
         <v>6</v>
       </c>
-      <c r="I390" t="n">
-        <v>0</v>
+      <c r="I390" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="391">
@@ -15686,8 +15698,10 @@
       <c r="H391" t="n">
         <v>2</v>
       </c>
-      <c r="I391" t="n">
-        <v>0</v>
+      <c r="I391" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="392">
@@ -15726,7 +15740,7 @@
         <v>3</v>
       </c>
       <c r="I392" t="n">
-        <v>55.56</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="393">
@@ -15804,7 +15818,7 @@
         <v>6</v>
       </c>
       <c r="I394" t="n">
-        <v>16.67</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="395">
@@ -15843,7 +15857,7 @@
         <v>3</v>
       </c>
       <c r="I395" t="n">
-        <v>6.41</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="396">
@@ -15882,7 +15896,7 @@
         <v>5</v>
       </c>
       <c r="I396" t="n">
-        <v>18.6</v>
+        <v>11.63</v>
       </c>
     </row>
     <row r="397">
@@ -15999,7 +16013,7 @@
         <v>2</v>
       </c>
       <c r="I399" t="n">
-        <v>20.69</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="400">
@@ -16077,7 +16091,7 @@
         <v>4</v>
       </c>
       <c r="I401" t="n">
-        <v>12.2</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="402">
@@ -16116,7 +16130,7 @@
         <v>2</v>
       </c>
       <c r="I402" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="403">
@@ -16155,7 +16169,7 @@
         <v>6</v>
       </c>
       <c r="I403" t="n">
-        <v>13.61</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="404">
@@ -16233,7 +16247,7 @@
         <v>17</v>
       </c>
       <c r="I405" t="n">
-        <v>17.99</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="406">
@@ -16311,7 +16325,7 @@
         <v>4</v>
       </c>
       <c r="I407" t="n">
-        <v>5.06</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="408">
@@ -16350,7 +16364,7 @@
         <v>4</v>
       </c>
       <c r="I408" t="n">
-        <v>6.41</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="409">
@@ -16389,7 +16403,7 @@
         <v>1</v>
       </c>
       <c r="I409" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
     </row>
     <row r="410">
@@ -16623,7 +16637,7 @@
         <v>6</v>
       </c>
       <c r="I415" t="n">
-        <v>10.61</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="416">
@@ -16661,9 +16675,7 @@
       <c r="H416" t="n">
         <v>0</v>
       </c>
-      <c r="I416" t="n">
-        <v>0</v>
-      </c>
+      <c r="I416" t="inlineStr"/>
     </row>
     <row r="417">
       <c r="A417" t="n">
@@ -16701,7 +16713,7 @@
         <v>1</v>
       </c>
       <c r="I417" t="n">
-        <v>3.57</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="418">
@@ -16740,7 +16752,7 @@
         <v>15</v>
       </c>
       <c r="I418" t="n">
-        <v>8.210000000000001</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="419">
@@ -16818,7 +16830,7 @@
         <v>4</v>
       </c>
       <c r="I420" t="n">
-        <v>3.73</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="421">
@@ -16974,7 +16986,7 @@
         <v>6</v>
       </c>
       <c r="I424" t="n">
-        <v>8.210000000000001</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="425">
@@ -17013,7 +17025,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="426">
@@ -17052,7 +17064,7 @@
         <v>6</v>
       </c>
       <c r="I426" t="n">
-        <v>5.26</v>
+        <v>4.51</v>
       </c>
     </row>
     <row r="427">
@@ -17130,7 +17142,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="n">
-        <v>30.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429">
@@ -17169,7 +17181,7 @@
         <v>1</v>
       </c>
       <c r="I429" t="n">
-        <v>15.38</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="430">
@@ -17208,7 +17220,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="431">
@@ -17286,7 +17298,7 @@
         <v>13</v>
       </c>
       <c r="I432" t="n">
-        <v>15.12</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="433">
@@ -17364,7 +17376,7 @@
         <v>14</v>
       </c>
       <c r="I434" t="n">
-        <v>9.52</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="435">
@@ -17403,7 +17415,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="436">
@@ -17559,7 +17571,7 @@
         <v>14</v>
       </c>
       <c r="I439" t="n">
-        <v>11.81</v>
+        <v>9.720000000000001</v>
       </c>
     </row>
     <row r="440">
@@ -17637,7 +17649,7 @@
         <v>6</v>
       </c>
       <c r="I441" t="n">
-        <v>16.07</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="442">
@@ -17754,7 +17766,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="n">
-        <v>2.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -17793,7 +17805,7 @@
         <v>3</v>
       </c>
       <c r="I445" t="n">
-        <v>8.220000000000001</v>
+        <v>4.11</v>
       </c>
     </row>
     <row r="446">
@@ -17871,7 +17883,7 @@
         <v>9</v>
       </c>
       <c r="I447" t="n">
-        <v>28.85</v>
+        <v>17.31</v>
       </c>
     </row>
     <row r="448">
@@ -17910,7 +17922,7 @@
         <v>3</v>
       </c>
       <c r="I448" t="n">
-        <v>55.56</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="449">
@@ -17948,8 +17960,10 @@
       <c r="H449" t="n">
         <v>1</v>
       </c>
-      <c r="I449" t="n">
-        <v>0</v>
+      <c r="I449" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="450">
@@ -17987,8 +18001,10 @@
       <c r="H450" t="n">
         <v>1</v>
       </c>
-      <c r="I450" t="n">
-        <v>0</v>
+      <c r="I450" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="451">
@@ -18027,7 +18043,7 @@
         <v>17</v>
       </c>
       <c r="I451" t="n">
-        <v>19.84</v>
+        <v>6.88</v>
       </c>
     </row>
     <row r="452">
@@ -18066,7 +18082,7 @@
         <v>2</v>
       </c>
       <c r="I452" t="n">
-        <v>6.67</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="453">
@@ -18105,7 +18121,7 @@
         <v>1</v>
       </c>
       <c r="I453" t="n">
-        <v>2.3</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="454">
@@ -18144,7 +18160,7 @@
         <v>12</v>
       </c>
       <c r="I454" t="n">
-        <v>11.71</v>
+        <v>10.81</v>
       </c>
     </row>
     <row r="455">
@@ -18261,7 +18277,7 @@
         <v>1</v>
       </c>
       <c r="I457" t="n">
-        <v>7.27</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="458">
@@ -18300,7 +18316,7 @@
         <v>10</v>
       </c>
       <c r="I458" t="n">
-        <v>13.33</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="459">
@@ -18339,7 +18355,7 @@
         <v>35</v>
       </c>
       <c r="I459" t="n">
-        <v>14.19</v>
+        <v>8.01</v>
       </c>
     </row>
     <row r="460">
@@ -18378,7 +18394,7 @@
         <v>15</v>
       </c>
       <c r="I460" t="n">
-        <v>36.84</v>
+        <v>26.32</v>
       </c>
     </row>
     <row r="461">
@@ -18417,7 +18433,7 @@
         <v>0</v>
       </c>
       <c r="I461" t="n">
-        <v>18.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462">
@@ -18456,7 +18472,7 @@
         <v>9</v>
       </c>
       <c r="I462" t="n">
-        <v>11.52</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="463">
@@ -18495,7 +18511,7 @@
         <v>19</v>
       </c>
       <c r="I463" t="n">
-        <v>18.23</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="464">
@@ -18534,7 +18550,7 @@
         <v>7</v>
       </c>
       <c r="I464" t="n">
-        <v>3.4</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="465">
@@ -18573,7 +18589,7 @@
         <v>45</v>
       </c>
       <c r="I465" t="n">
-        <v>13.67</v>
+        <v>6.91</v>
       </c>
     </row>
     <row r="466">
@@ -18612,7 +18628,7 @@
         <v>0</v>
       </c>
       <c r="I466" t="n">
-        <v>5.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467">
@@ -18651,7 +18667,7 @@
         <v>7</v>
       </c>
       <c r="I467" t="n">
-        <v>11.76</v>
+        <v>10.29</v>
       </c>
     </row>
     <row r="468">
@@ -18690,7 +18706,7 @@
         <v>1</v>
       </c>
       <c r="I468" t="n">
-        <v>15.79</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="469">
@@ -18729,7 +18745,7 @@
         <v>0</v>
       </c>
       <c r="I469" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470">
@@ -18807,7 +18823,7 @@
         <v>4</v>
       </c>
       <c r="I471" t="n">
-        <v>8.65</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="472">
@@ -18846,7 +18862,7 @@
         <v>2</v>
       </c>
       <c r="I472" t="n">
-        <v>18.42</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="473">
@@ -18885,7 +18901,7 @@
         <v>5</v>
       </c>
       <c r="I473" t="n">
-        <v>11.46</v>
+        <v>5.21</v>
       </c>
     </row>
     <row r="474">
@@ -18924,7 +18940,7 @@
         <v>0</v>
       </c>
       <c r="I474" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475">
@@ -18963,7 +18979,7 @@
         <v>5</v>
       </c>
       <c r="I475" t="n">
-        <v>21.28</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="476">
@@ -19002,7 +19018,7 @@
         <v>0</v>
       </c>
       <c r="I476" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -19119,7 +19135,7 @@
         <v>6</v>
       </c>
       <c r="I479" t="n">
-        <v>31.62</v>
+        <v>5.13</v>
       </c>
     </row>
     <row r="480">
@@ -19158,7 +19174,7 @@
         <v>0</v>
       </c>
       <c r="I480" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -19236,7 +19252,7 @@
         <v>11</v>
       </c>
       <c r="I482" t="n">
-        <v>10.53</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="483">
@@ -19275,7 +19291,7 @@
         <v>6</v>
       </c>
       <c r="I483" t="n">
-        <v>34.69</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="484">
@@ -19314,7 +19330,7 @@
         <v>2</v>
       </c>
       <c r="I484" t="n">
-        <v>35.29</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="485">
@@ -19353,7 +19369,7 @@
         <v>1</v>
       </c>
       <c r="I485" t="n">
-        <v>27.27</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="486">
@@ -19470,7 +19486,7 @@
         <v>4</v>
       </c>
       <c r="I488" t="n">
-        <v>24.14</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="489">
@@ -19548,7 +19564,7 @@
         <v>0</v>
       </c>
       <c r="I490" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -19587,7 +19603,7 @@
         <v>1</v>
       </c>
       <c r="I491" t="n">
-        <v>87.5</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="492">
@@ -19626,7 +19642,7 @@
         <v>0</v>
       </c>
       <c r="I492" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -19665,7 +19681,7 @@
         <v>2</v>
       </c>
       <c r="I493" t="n">
-        <v>11.43</v>
+        <v>5.71</v>
       </c>
     </row>
     <row r="494">
@@ -19704,7 +19720,7 @@
         <v>2</v>
       </c>
       <c r="I494" t="n">
-        <v>22.22</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="495">
@@ -19743,7 +19759,7 @@
         <v>2</v>
       </c>
       <c r="I495" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
     </row>
     <row r="496">
@@ -19782,7 +19798,7 @@
         <v>1</v>
       </c>
       <c r="I496" t="n">
-        <v>6.25</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="497">
@@ -19860,7 +19876,7 @@
         <v>0</v>
       </c>
       <c r="I498" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="499">
@@ -19899,7 +19915,7 @@
         <v>9</v>
       </c>
       <c r="I499" t="n">
-        <v>8.960000000000001</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="500">
@@ -20055,7 +20071,7 @@
         <v>1</v>
       </c>
       <c r="I503" t="n">
-        <v>43.75</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="504">
@@ -20133,7 +20149,7 @@
         <v>6</v>
       </c>
       <c r="I505" t="n">
-        <v>21.43</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="506">
@@ -20172,7 +20188,7 @@
         <v>3</v>
       </c>
       <c r="I506" t="n">
-        <v>44.44</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="507">
@@ -20211,7 +20227,7 @@
         <v>4</v>
       </c>
       <c r="I507" t="n">
-        <v>14.93</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="508">
@@ -20250,7 +20266,7 @@
         <v>3</v>
       </c>
       <c r="I508" t="n">
-        <v>8.16</v>
+        <v>6.12</v>
       </c>
     </row>
     <row r="509">
@@ -20289,7 +20305,7 @@
         <v>7</v>
       </c>
       <c r="I509" t="n">
-        <v>12.75</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="510">
@@ -20367,7 +20383,7 @@
         <v>5</v>
       </c>
       <c r="I511" t="n">
-        <v>27.12</v>
+        <v>8.470000000000001</v>
       </c>
     </row>
     <row r="512">
@@ -20406,7 +20422,7 @@
         <v>13</v>
       </c>
       <c r="I512" t="n">
-        <v>20.59</v>
+        <v>6.37</v>
       </c>
     </row>
     <row r="513">
@@ -20445,7 +20461,7 @@
         <v>1</v>
       </c>
       <c r="I513" t="n">
-        <v>8.960000000000001</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="514">
@@ -20484,7 +20500,7 @@
         <v>0</v>
       </c>
       <c r="I514" t="n">
-        <v>17.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515">
@@ -20523,7 +20539,7 @@
         <v>1</v>
       </c>
       <c r="I515" t="n">
-        <v>28.57</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="516">
@@ -20562,7 +20578,7 @@
         <v>0</v>
       </c>
       <c r="I516" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
     </row>
     <row r="517">
@@ -20601,7 +20617,7 @@
         <v>1</v>
       </c>
       <c r="I517" t="n">
-        <v>36.36</v>
+        <v>4.55</v>
       </c>
     </row>
     <row r="518">
@@ -20640,7 +20656,7 @@
         <v>0</v>
       </c>
       <c r="I518" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="519">
@@ -20679,7 +20695,7 @@
         <v>2</v>
       </c>
       <c r="I519" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="520">
@@ -20718,7 +20734,7 @@
         <v>6</v>
       </c>
       <c r="I520" t="n">
-        <v>26.67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="521">
@@ -20757,7 +20773,7 @@
         <v>6</v>
       </c>
       <c r="I521" t="n">
-        <v>41.38</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="522">
@@ -20796,7 +20812,7 @@
         <v>3</v>
       </c>
       <c r="I522" t="n">
-        <v>26.32</v>
+        <v>15.79</v>
       </c>
     </row>
     <row r="523">
@@ -20835,7 +20851,7 @@
         <v>17</v>
       </c>
       <c r="I523" t="n">
-        <v>20.47</v>
+        <v>9.94</v>
       </c>
     </row>
     <row r="524">
@@ -20913,7 +20929,7 @@
         <v>5</v>
       </c>
       <c r="I525" t="n">
-        <v>18.75</v>
+        <v>7.81</v>
       </c>
     </row>
     <row r="526">
@@ -20952,7 +20968,7 @@
         <v>4</v>
       </c>
       <c r="I526" t="n">
-        <v>23.53</v>
+        <v>11.76</v>
       </c>
     </row>
     <row r="527">
@@ -20991,7 +21007,7 @@
         <v>3</v>
       </c>
       <c r="I527" t="n">
-        <v>44.44</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="528">
@@ -21030,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="I528" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -21108,7 +21124,7 @@
         <v>1</v>
       </c>
       <c r="I530" t="n">
-        <v>14.81</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="531">
@@ -21146,8 +21162,10 @@
       <c r="H531" t="n">
         <v>1</v>
       </c>
-      <c r="I531" t="n">
-        <v>0</v>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="532">
@@ -21186,7 +21204,7 @@
         <v>5</v>
       </c>
       <c r="I532" t="n">
-        <v>5</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="533">
@@ -21303,7 +21321,7 @@
         <v>7</v>
       </c>
       <c r="I535" t="n">
-        <v>50</v>
+        <v>43.75</v>
       </c>
     </row>
     <row r="536">
@@ -21459,7 +21477,7 @@
         <v>1</v>
       </c>
       <c r="I539" t="n">
-        <v>100</v>
+        <v>25</v>
       </c>
     </row>
     <row r="540">
@@ -21537,7 +21555,7 @@
         <v>6</v>
       </c>
       <c r="I541" t="n">
-        <v>4.91</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="542">
@@ -21576,7 +21594,7 @@
         <v>1</v>
       </c>
       <c r="I542" t="n">
-        <v>5.15</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="543">
@@ -21615,7 +21633,7 @@
         <v>1</v>
       </c>
       <c r="I543" t="n">
-        <v>6.38</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="544">
@@ -21849,7 +21867,7 @@
         <v>0</v>
       </c>
       <c r="I549" t="n">
-        <v>64.29000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="550">
@@ -21888,7 +21906,7 @@
         <v>6</v>
       </c>
       <c r="I550" t="n">
-        <v>7.27</v>
+        <v>5.45</v>
       </c>
     </row>
     <row r="551">
@@ -21927,7 +21945,7 @@
         <v>1</v>
       </c>
       <c r="I551" t="n">
-        <v>3.23</v>
+        <v>1.61</v>
       </c>
     </row>
     <row r="552">
@@ -21966,7 +21984,7 @@
         <v>6</v>
       </c>
       <c r="I552" t="n">
-        <v>4.6</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="553">
@@ -22005,7 +22023,7 @@
         <v>2</v>
       </c>
       <c r="I553" t="n">
-        <v>1.23</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="554">
@@ -22044,7 +22062,7 @@
         <v>4</v>
       </c>
       <c r="I554" t="n">
-        <v>6.12</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="555">
@@ -22083,7 +22101,7 @@
         <v>0</v>
       </c>
       <c r="I555" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="556">
@@ -22122,7 +22140,7 @@
         <v>2</v>
       </c>
       <c r="I556" t="n">
-        <v>1.29</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="557">
@@ -22200,7 +22218,7 @@
         <v>3</v>
       </c>
       <c r="I558" t="n">
-        <v>1.62</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="559">
@@ -22239,7 +22257,7 @@
         <v>2</v>
       </c>
       <c r="I559" t="n">
-        <v>3</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="560">
@@ -22278,7 +22296,7 @@
         <v>6</v>
       </c>
       <c r="I560" t="n">
-        <v>5.29</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="561">
@@ -22356,7 +22374,7 @@
         <v>0</v>
       </c>
       <c r="I562" t="n">
-        <v>2.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="563">
@@ -22395,7 +22413,7 @@
         <v>0</v>
       </c>
       <c r="I563" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -22434,7 +22452,7 @@
         <v>4</v>
       </c>
       <c r="I564" t="n">
-        <v>4.06</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="565">
@@ -22473,7 +22491,7 @@
         <v>3</v>
       </c>
       <c r="I565" t="n">
-        <v>2.4</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="566">
@@ -22551,7 +22569,7 @@
         <v>4</v>
       </c>
       <c r="I567" t="n">
-        <v>4.85</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="568">
@@ -22668,7 +22686,7 @@
         <v>2</v>
       </c>
       <c r="I570" t="n">
-        <v>4.92</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="571">
@@ -22707,7 +22725,7 @@
         <v>6</v>
       </c>
       <c r="I571" t="n">
-        <v>7.87</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="572">
@@ -22746,7 +22764,7 @@
         <v>1</v>
       </c>
       <c r="I572" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="573">
@@ -22785,7 +22803,7 @@
         <v>13</v>
       </c>
       <c r="I573" t="n">
-        <v>11.5</v>
+        <v>5.75</v>
       </c>
     </row>
     <row r="574">
@@ -22941,7 +22959,7 @@
         <v>6</v>
       </c>
       <c r="I577" t="n">
-        <v>9.15</v>
+        <v>3.92</v>
       </c>
     </row>
     <row r="578">
@@ -22980,7 +22998,7 @@
         <v>2</v>
       </c>
       <c r="I578" t="n">
-        <v>9.84</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="579">
@@ -23019,7 +23037,7 @@
         <v>2</v>
       </c>
       <c r="I579" t="n">
-        <v>44.44</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="580">
@@ -23058,7 +23076,7 @@
         <v>14</v>
       </c>
       <c r="I580" t="n">
-        <v>7.23</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="581">
@@ -23136,7 +23154,7 @@
         <v>3</v>
       </c>
       <c r="I582" t="n">
-        <v>8.890000000000001</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="583">
@@ -23214,7 +23232,7 @@
         <v>0</v>
       </c>
       <c r="I584" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="585">
@@ -23292,7 +23310,7 @@
         <v>20</v>
       </c>
       <c r="I586" t="n">
-        <v>7.99</v>
+        <v>6.94</v>
       </c>
     </row>
     <row r="587">
@@ -23331,7 +23349,7 @@
         <v>0</v>
       </c>
       <c r="I587" t="n">
-        <v>1.64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="588">
@@ -23370,7 +23388,7 @@
         <v>10</v>
       </c>
       <c r="I588" t="n">
-        <v>11.2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="589">
@@ -23447,9 +23465,7 @@
       <c r="H590" t="n">
         <v>0</v>
       </c>
-      <c r="I590" t="n">
-        <v>0</v>
-      </c>
+      <c r="I590" t="inlineStr"/>
     </row>
     <row r="591">
       <c r="A591" t="n">
@@ -23721,7 +23737,7 @@
         <v>11</v>
       </c>
       <c r="I597" t="n">
-        <v>51.85</v>
+        <v>20.37</v>
       </c>
     </row>
     <row r="598">
@@ -23799,7 +23815,7 @@
         <v>6</v>
       </c>
       <c r="I599" t="n">
-        <v>39.62</v>
+        <v>11.32</v>
       </c>
     </row>
     <row r="600">
@@ -23838,7 +23854,7 @@
         <v>0</v>
       </c>
       <c r="I600" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -23877,7 +23893,7 @@
         <v>5</v>
       </c>
       <c r="I601" t="n">
-        <v>33.33</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="602">
@@ -23916,7 +23932,7 @@
         <v>1</v>
       </c>
       <c r="I602" t="n">
-        <v>61.54</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="603">
@@ -23955,7 +23971,7 @@
         <v>0</v>
       </c>
       <c r="I603" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="604">
@@ -24032,9 +24048,7 @@
       <c r="H605" t="n">
         <v>0</v>
       </c>
-      <c r="I605" t="n">
-        <v>0</v>
-      </c>
+      <c r="I605" t="inlineStr"/>
     </row>
     <row r="606">
       <c r="A606" t="n">
@@ -24072,7 +24086,7 @@
         <v>0</v>
       </c>
       <c r="I606" t="n">
-        <v>10.53</v>
+        <v>0</v>
       </c>
     </row>
     <row r="607">
@@ -24111,7 +24125,7 @@
         <v>3</v>
       </c>
       <c r="I607" t="n">
-        <v>16.42</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="608">
@@ -24150,7 +24164,7 @@
         <v>0</v>
       </c>
       <c r="I608" t="n">
-        <v>5.08</v>
+        <v>0</v>
       </c>
     </row>
     <row r="609">
@@ -24189,7 +24203,7 @@
         <v>9</v>
       </c>
       <c r="I609" t="n">
-        <v>6.14</v>
+        <v>3.07</v>
       </c>
     </row>
     <row r="610">
@@ -24228,7 +24242,7 @@
         <v>1</v>
       </c>
       <c r="I610" t="n">
-        <v>5.97</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="611">
@@ -24267,7 +24281,7 @@
         <v>7</v>
       </c>
       <c r="I611" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="612">
@@ -24306,7 +24320,7 @@
         <v>5</v>
       </c>
       <c r="I612" t="n">
-        <v>10.71</v>
+        <v>8.93</v>
       </c>
     </row>
     <row r="613">
@@ -24384,7 +24398,7 @@
         <v>7</v>
       </c>
       <c r="I614" t="n">
-        <v>52.94</v>
+        <v>41.18</v>
       </c>
     </row>
     <row r="615">
@@ -24423,7 +24437,7 @@
         <v>6</v>
       </c>
       <c r="I615" t="n">
-        <v>39.13</v>
+        <v>26.09</v>
       </c>
     </row>
     <row r="616">
@@ -24462,7 +24476,7 @@
         <v>1</v>
       </c>
       <c r="I616" t="n">
-        <v>6.38</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="617">
@@ -24501,7 +24515,7 @@
         <v>2</v>
       </c>
       <c r="I617" t="n">
-        <v>10.71</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="618">
@@ -24540,7 +24554,7 @@
         <v>1</v>
       </c>
       <c r="I618" t="n">
-        <v>50</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="619">
@@ -24579,7 +24593,7 @@
         <v>4</v>
       </c>
       <c r="I619" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="620">
@@ -24657,7 +24671,7 @@
         <v>0</v>
       </c>
       <c r="I621" t="n">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622">
@@ -24696,7 +24710,7 @@
         <v>11</v>
       </c>
       <c r="I622" t="n">
-        <v>18.46</v>
+        <v>16.92</v>
       </c>
     </row>
     <row r="623">
@@ -24735,7 +24749,7 @@
         <v>6</v>
       </c>
       <c r="I623" t="n">
-        <v>9.26</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="624">
@@ -24774,7 +24788,7 @@
         <v>11</v>
       </c>
       <c r="I624" t="n">
-        <v>23.33</v>
+        <v>18.33</v>
       </c>
     </row>
     <row r="625">
@@ -24813,7 +24827,7 @@
         <v>19</v>
       </c>
       <c r="I625" t="n">
-        <v>29.17</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="626">
@@ -24852,7 +24866,7 @@
         <v>0</v>
       </c>
       <c r="I626" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627">
@@ -25008,7 +25022,7 @@
         <v>3</v>
       </c>
       <c r="I630" t="n">
-        <v>4.44</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="631">
@@ -25047,7 +25061,7 @@
         <v>5</v>
       </c>
       <c r="I631" t="n">
-        <v>9.880000000000001</v>
+        <v>6.17</v>
       </c>
     </row>
     <row r="632">
@@ -25086,7 +25100,7 @@
         <v>3</v>
       </c>
       <c r="I632" t="n">
-        <v>6.9</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="633">
@@ -25125,7 +25139,7 @@
         <v>2</v>
       </c>
       <c r="I633" t="n">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="634">
@@ -25164,7 +25178,7 @@
         <v>5</v>
       </c>
       <c r="I634" t="n">
-        <v>5.07</v>
+        <v>3.62</v>
       </c>
     </row>
     <row r="635">
@@ -25203,7 +25217,7 @@
         <v>0</v>
       </c>
       <c r="I635" t="n">
-        <v>2.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636">
@@ -25242,7 +25256,7 @@
         <v>4</v>
       </c>
       <c r="I636" t="n">
-        <v>6.67</v>
+        <v>4.44</v>
       </c>
     </row>
     <row r="637">
@@ -25320,7 +25334,7 @@
         <v>18</v>
       </c>
       <c r="I638" t="n">
-        <v>19.2</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="639">
@@ -25359,7 +25373,7 @@
         <v>1</v>
       </c>
       <c r="I639" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="640">
@@ -25398,7 +25412,7 @@
         <v>12</v>
       </c>
       <c r="I640" t="n">
-        <v>12.82</v>
+        <v>10.26</v>
       </c>
     </row>
     <row r="641">
@@ -25476,7 +25490,7 @@
         <v>3</v>
       </c>
       <c r="I642" t="n">
-        <v>5.41</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="643">
@@ -25554,7 +25568,7 @@
         <v>0</v>
       </c>
       <c r="I644" t="n">
-        <v>3.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="645">
@@ -25593,7 +25607,7 @@
         <v>0</v>
       </c>
       <c r="I645" t="n">
-        <v>4.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="646">
@@ -25632,7 +25646,7 @@
         <v>2</v>
       </c>
       <c r="I646" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
     </row>
     <row r="647">
@@ -25671,7 +25685,7 @@
         <v>0</v>
       </c>
       <c r="I647" t="n">
-        <v>16.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="648">
@@ -25710,7 +25724,7 @@
         <v>9</v>
       </c>
       <c r="I648" t="n">
-        <v>5.45</v>
+        <v>4.46</v>
       </c>
     </row>
     <row r="649">
@@ -25788,7 +25802,7 @@
         <v>26</v>
       </c>
       <c r="I650" t="n">
-        <v>12</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="651">
@@ -25866,7 +25880,7 @@
         <v>17</v>
       </c>
       <c r="I652" t="n">
-        <v>14.81</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="653">
@@ -25905,7 +25919,7 @@
         <v>19</v>
       </c>
       <c r="I653" t="n">
-        <v>10.61</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="654">
@@ -25983,7 +25997,7 @@
         <v>5</v>
       </c>
       <c r="I655" t="n">
-        <v>4.26</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="656">
@@ -26022,7 +26036,7 @@
         <v>12</v>
       </c>
       <c r="I656" t="n">
-        <v>6.23</v>
+        <v>4.4</v>
       </c>
     </row>
     <row r="657">
@@ -26100,7 +26114,7 @@
         <v>3</v>
       </c>
       <c r="I658" t="n">
-        <v>55.56</v>
+        <v>33.33</v>
       </c>
     </row>
     <row r="659">
@@ -26178,7 +26192,7 @@
         <v>8</v>
       </c>
       <c r="I660" t="n">
-        <v>10.83</v>
+        <v>5.1</v>
       </c>
     </row>
     <row r="661">
@@ -26217,7 +26231,7 @@
         <v>7</v>
       </c>
       <c r="I661" t="n">
-        <v>9.48</v>
+        <v>6.03</v>
       </c>
     </row>
     <row r="662">
@@ -26256,7 +26270,7 @@
         <v>1</v>
       </c>
       <c r="I662" t="n">
-        <v>18.18</v>
+        <v>9.09</v>
       </c>
     </row>
     <row r="663">
@@ -26295,7 +26309,7 @@
         <v>5</v>
       </c>
       <c r="I663" t="n">
-        <v>13.25</v>
+        <v>6.02</v>
       </c>
     </row>
     <row r="664">
@@ -26334,7 +26348,7 @@
         <v>0</v>
       </c>
       <c r="I664" t="n">
-        <v>28.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="665">
@@ -26412,7 +26426,7 @@
         <v>3</v>
       </c>
       <c r="I666" t="n">
-        <v>10.08</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="667">
@@ -26451,7 +26465,7 @@
         <v>6</v>
       </c>
       <c r="I667" t="n">
-        <v>9.02</v>
+        <v>4.92</v>
       </c>
     </row>
     <row r="668">
@@ -26490,7 +26504,7 @@
         <v>6</v>
       </c>
       <c r="I668" t="n">
-        <v>10</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="669">
@@ -26529,7 +26543,7 @@
         <v>2</v>
       </c>
       <c r="I669" t="n">
-        <v>8.16</v>
+        <v>4.08</v>
       </c>
     </row>
     <row r="670">
@@ -26568,7 +26582,7 @@
         <v>6</v>
       </c>
       <c r="I670" t="n">
-        <v>18.25</v>
+        <v>4.38</v>
       </c>
     </row>
     <row r="671">
@@ -26607,7 +26621,7 @@
         <v>1</v>
       </c>
       <c r="I671" t="n">
-        <v>9.76</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="672">
@@ -26646,7 +26660,7 @@
         <v>10</v>
       </c>
       <c r="I672" t="n">
-        <v>17.33</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="673">
@@ -26685,7 +26699,7 @@
         <v>0</v>
       </c>
       <c r="I673" t="n">
-        <v>14.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -26724,7 +26738,7 @@
         <v>4</v>
       </c>
       <c r="I674" t="n">
-        <v>17.24</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="675">
@@ -26763,7 +26777,7 @@
         <v>0</v>
       </c>
       <c r="I675" t="n">
-        <v>15.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="676">
@@ -26802,7 +26816,7 @@
         <v>0</v>
       </c>
       <c r="I676" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="677">
@@ -26841,7 +26855,7 @@
         <v>1</v>
       </c>
       <c r="I677" t="n">
-        <v>32.89</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="678">
@@ -26880,7 +26894,7 @@
         <v>1</v>
       </c>
       <c r="I678" t="n">
-        <v>20.34</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="679">
@@ -26919,7 +26933,7 @@
         <v>0</v>
       </c>
       <c r="I679" t="n">
-        <v>4.76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680">
@@ -27036,7 +27050,7 @@
         <v>7</v>
       </c>
       <c r="I682" t="n">
-        <v>10.13</v>
+        <v>8.859999999999999</v>
       </c>
     </row>
     <row r="683">
@@ -27074,9 +27088,7 @@
       <c r="H683" t="n">
         <v>0</v>
       </c>
-      <c r="I683" t="n">
-        <v>0</v>
-      </c>
+      <c r="I683" t="inlineStr"/>
     </row>
     <row r="684">
       <c r="A684" t="n">
@@ -27114,7 +27126,7 @@
         <v>0</v>
       </c>
       <c r="I684" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685">
@@ -27153,7 +27165,7 @@
         <v>22</v>
       </c>
       <c r="I685" t="n">
-        <v>12.05</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="686">
@@ -27270,7 +27282,7 @@
         <v>1</v>
       </c>
       <c r="I688" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="689">
@@ -27348,7 +27360,7 @@
         <v>3</v>
       </c>
       <c r="I690" t="n">
-        <v>15.29</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="691">
@@ -27387,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I691" t="n">
-        <v>7.14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692">
@@ -27426,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="I692" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693">
@@ -27504,7 +27516,7 @@
         <v>0</v>
       </c>
       <c r="I694" t="n">
-        <v>4.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="695">
@@ -27582,7 +27594,7 @@
         <v>21</v>
       </c>
       <c r="I696" t="n">
-        <v>5.58</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="697">
@@ -27699,7 +27711,7 @@
         <v>17</v>
       </c>
       <c r="I699" t="n">
-        <v>17.07</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="700">
@@ -27777,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="I701" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="702">
@@ -27816,7 +27828,7 @@
         <v>1</v>
       </c>
       <c r="I702" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="703">
@@ -27933,7 +27945,7 @@
         <v>2</v>
       </c>
       <c r="I705" t="n">
-        <v>4.4</v>
+        <v>2.2</v>
       </c>
     </row>
     <row r="706">
@@ -27972,7 +27984,7 @@
         <v>6</v>
       </c>
       <c r="I706" t="n">
-        <v>5.69</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="707">
@@ -28050,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="I708" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="709">
@@ -28089,7 +28101,7 @@
         <v>0</v>
       </c>
       <c r="I709" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="710">
@@ -28284,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="I714" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715">
@@ -28323,7 +28335,7 @@
         <v>1</v>
       </c>
       <c r="I715" t="n">
-        <v>7.14</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="716">
@@ -28362,7 +28374,7 @@
         <v>9</v>
       </c>
       <c r="I716" t="n">
-        <v>7.29</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="717">
@@ -28401,7 +28413,7 @@
         <v>3</v>
       </c>
       <c r="I717" t="n">
-        <v>11.27</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="718">
@@ -28518,7 +28530,7 @@
         <v>4</v>
       </c>
       <c r="I720" t="n">
-        <v>17.14</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="721">
@@ -28557,7 +28569,7 @@
         <v>5</v>
       </c>
       <c r="I721" t="n">
-        <v>8.57</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="722">
@@ -28635,7 +28647,7 @@
         <v>3</v>
       </c>
       <c r="I723" t="n">
-        <v>9.23</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="724">
@@ -28752,7 +28764,7 @@
         <v>3</v>
       </c>
       <c r="I726" t="n">
-        <v>8.93</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="727">
@@ -28791,7 +28803,7 @@
         <v>10</v>
       </c>
       <c r="I727" t="n">
-        <v>7.58</v>
+        <v>3.61</v>
       </c>
     </row>
     <row r="728">
@@ -28986,7 +28998,7 @@
         <v>0</v>
       </c>
       <c r="I732" t="n">
-        <v>15.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="733">
@@ -29025,7 +29037,7 @@
         <v>2</v>
       </c>
       <c r="I733" t="n">
-        <v>23.26</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="734">
@@ -29064,7 +29076,7 @@
         <v>5</v>
       </c>
       <c r="I734" t="n">
-        <v>10.05</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="735">
@@ -29181,7 +29193,7 @@
         <v>1</v>
       </c>
       <c r="I737" t="n">
-        <v>12.5</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="738">
@@ -29220,7 +29232,7 @@
         <v>4</v>
       </c>
       <c r="I738" t="n">
-        <v>15.6</v>
+        <v>3.67</v>
       </c>
     </row>
     <row r="739">
@@ -29258,8 +29270,10 @@
       <c r="H739" t="n">
         <v>1</v>
       </c>
-      <c r="I739" t="n">
-        <v>0</v>
+      <c r="I739" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="740">
@@ -29297,8 +29311,10 @@
       <c r="H740" t="n">
         <v>2</v>
       </c>
-      <c r="I740" t="n">
-        <v>0</v>
+      <c r="I740" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="741">
@@ -29336,8 +29352,10 @@
       <c r="H741" t="n">
         <v>2</v>
       </c>
-      <c r="I741" t="n">
-        <v>0</v>
+      <c r="I741" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="742">
@@ -29415,7 +29433,7 @@
         <v>4</v>
       </c>
       <c r="I743" t="n">
-        <v>21.13</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="744">
@@ -29454,7 +29472,7 @@
         <v>2</v>
       </c>
       <c r="I744" t="n">
-        <v>16.67</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="745">
@@ -29493,7 +29511,7 @@
         <v>14</v>
       </c>
       <c r="I745" t="n">
-        <v>9.550000000000001</v>
+        <v>7.87</v>
       </c>
     </row>
     <row r="746">
@@ -29532,7 +29550,7 @@
         <v>3</v>
       </c>
       <c r="I746" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="747">
@@ -29649,7 +29667,7 @@
         <v>1</v>
       </c>
       <c r="I749" t="n">
-        <v>11.11</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="750">
@@ -29688,7 +29706,7 @@
         <v>7</v>
       </c>
       <c r="I750" t="n">
-        <v>9.02</v>
+        <v>5.74</v>
       </c>
     </row>
     <row r="751">
@@ -29727,7 +29745,7 @@
         <v>9</v>
       </c>
       <c r="I751" t="n">
-        <v>9.82</v>
+        <v>8.039999999999999</v>
       </c>
     </row>
     <row r="752">
@@ -29766,7 +29784,7 @@
         <v>3</v>
       </c>
       <c r="I752" t="n">
-        <v>19.05</v>
+        <v>14.29</v>
       </c>
     </row>
     <row r="753">
@@ -29805,7 +29823,7 @@
         <v>1</v>
       </c>
       <c r="I753" t="n">
-        <v>10.71</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="754">
@@ -29844,7 +29862,7 @@
         <v>4</v>
       </c>
       <c r="I754" t="n">
-        <v>10.45</v>
+        <v>5.97</v>
       </c>
     </row>
     <row r="755">
@@ -29922,7 +29940,7 @@
         <v>0</v>
       </c>
       <c r="I756" t="n">
-        <v>13.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -29961,7 +29979,7 @@
         <v>3</v>
       </c>
       <c r="I757" t="n">
-        <v>8.33</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="758">
@@ -30000,7 +30018,7 @@
         <v>0</v>
       </c>
       <c r="I758" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="759">
@@ -30078,7 +30096,7 @@
         <v>10</v>
       </c>
       <c r="I760" t="n">
-        <v>9.66</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="761">
@@ -30117,7 +30135,7 @@
         <v>12</v>
       </c>
       <c r="I761" t="n">
-        <v>18.18</v>
+        <v>4.96</v>
       </c>
     </row>
     <row r="762">
@@ -30155,9 +30173,7 @@
       <c r="H762" t="n">
         <v>0</v>
       </c>
-      <c r="I762" t="n">
-        <v>0</v>
-      </c>
+      <c r="I762" t="inlineStr"/>
     </row>
     <row r="763">
       <c r="A763" t="n">
@@ -30195,7 +30211,7 @@
         <v>3</v>
       </c>
       <c r="I763" t="n">
-        <v>7.04</v>
+        <v>4.23</v>
       </c>
     </row>
     <row r="764">
@@ -30234,7 +30250,7 @@
         <v>1</v>
       </c>
       <c r="I764" t="n">
-        <v>66.67</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="765">
@@ -30273,7 +30289,7 @@
         <v>0</v>
       </c>
       <c r="I765" t="n">
-        <v>12.24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="766">
@@ -30312,7 +30328,7 @@
         <v>9</v>
       </c>
       <c r="I766" t="n">
-        <v>9.710000000000001</v>
+        <v>8.74</v>
       </c>
     </row>
     <row r="767">
@@ -30351,7 +30367,7 @@
         <v>4</v>
       </c>
       <c r="I767" t="n">
-        <v>16.98</v>
+        <v>7.55</v>
       </c>
     </row>
     <row r="768">
@@ -30429,7 +30445,7 @@
         <v>2</v>
       </c>
       <c r="I769" t="n">
-        <v>4</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="770">
@@ -30546,7 +30562,7 @@
         <v>2</v>
       </c>
       <c r="I772" t="n">
-        <v>5.13</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="773">
@@ -30585,7 +30601,7 @@
         <v>8</v>
       </c>
       <c r="I773" t="n">
-        <v>12</v>
+        <v>10.67</v>
       </c>
     </row>
     <row r="774">
@@ -30624,7 +30640,7 @@
         <v>4</v>
       </c>
       <c r="I774" t="n">
-        <v>6.85</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="775">
@@ -30663,7 +30679,7 @@
         <v>6</v>
       </c>
       <c r="I775" t="n">
-        <v>6.51</v>
+        <v>3.55</v>
       </c>
     </row>
     <row r="776">
@@ -30702,7 +30718,7 @@
         <v>0</v>
       </c>
       <c r="I776" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="777">
@@ -30741,7 +30757,7 @@
         <v>3</v>
       </c>
       <c r="I777" t="n">
-        <v>3.79</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="778">
@@ -30780,7 +30796,7 @@
         <v>3</v>
       </c>
       <c r="I778" t="n">
-        <v>5.97</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="779">
@@ -30819,7 +30835,7 @@
         <v>3</v>
       </c>
       <c r="I779" t="n">
-        <v>5.41</v>
+        <v>4.05</v>
       </c>
     </row>
     <row r="780">
@@ -30936,7 +30952,7 @@
         <v>4</v>
       </c>
       <c r="I782" t="n">
-        <v>5.15</v>
+        <v>2.06</v>
       </c>
     </row>
     <row r="783">
@@ -30975,7 +30991,7 @@
         <v>1</v>
       </c>
       <c r="I783" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="784">
@@ -31053,7 +31069,7 @@
         <v>9</v>
       </c>
       <c r="I785" t="n">
-        <v>6.05</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="786">
@@ -31131,7 +31147,7 @@
         <v>11</v>
       </c>
       <c r="I787" t="n">
-        <v>13.02</v>
+        <v>6.51</v>
       </c>
     </row>
     <row r="788">
@@ -31248,7 +31264,7 @@
         <v>12</v>
       </c>
       <c r="I790" t="n">
-        <v>9.619999999999999</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="791">
@@ -31287,7 +31303,7 @@
         <v>2</v>
       </c>
       <c r="I791" t="n">
-        <v>20</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="792">
@@ -31365,7 +31381,7 @@
         <v>0</v>
       </c>
       <c r="I793" t="n">
-        <v>33.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="794">
@@ -31404,7 +31420,7 @@
         <v>5</v>
       </c>
       <c r="I794" t="n">
-        <v>3.73</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="795">
@@ -31443,7 +31459,7 @@
         <v>2</v>
       </c>
       <c r="I795" t="n">
-        <v>4.05</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="796">
@@ -31521,7 +31537,7 @@
         <v>2</v>
       </c>
       <c r="I797" t="n">
-        <v>4.88</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="798">
@@ -31560,7 +31576,7 @@
         <v>3</v>
       </c>
       <c r="I798" t="n">
-        <v>8.93</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="799">
@@ -31638,7 +31654,7 @@
         <v>10</v>
       </c>
       <c r="I800" t="n">
-        <v>13.98</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="801">
@@ -31677,7 +31693,7 @@
         <v>2</v>
       </c>
       <c r="I801" t="n">
-        <v>2.55</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="802">
@@ -31716,7 +31732,7 @@
         <v>9</v>
       </c>
       <c r="I802" t="n">
-        <v>12.22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="803">
@@ -31794,7 +31810,7 @@
         <v>16</v>
       </c>
       <c r="I804" t="n">
-        <v>7.44</v>
+        <v>5.18</v>
       </c>
     </row>
     <row r="805">
@@ -31833,7 +31849,7 @@
         <v>3</v>
       </c>
       <c r="I805" t="n">
-        <v>5.5</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="806">
@@ -31911,7 +31927,7 @@
         <v>18</v>
       </c>
       <c r="I807" t="n">
-        <v>10.89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="808">
@@ -31988,8 +32004,10 @@
       <c r="H809" t="n">
         <v>5</v>
       </c>
-      <c r="I809" t="n">
-        <v>0</v>
+      <c r="I809" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="810">
@@ -32027,8 +32045,10 @@
       <c r="H810" t="n">
         <v>3</v>
       </c>
-      <c r="I810" t="n">
-        <v>0</v>
+      <c r="I810" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="811">
@@ -32066,8 +32086,10 @@
       <c r="H811" t="n">
         <v>1</v>
       </c>
-      <c r="I811" t="n">
-        <v>0</v>
+      <c r="I811" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="812">
@@ -32145,7 +32167,7 @@
         <v>14</v>
       </c>
       <c r="I813" t="n">
-        <v>24.32</v>
+        <v>18.92</v>
       </c>
     </row>
     <row r="814">
@@ -32223,7 +32245,7 @@
         <v>10</v>
       </c>
       <c r="I815" t="n">
-        <v>18.67</v>
+        <v>13.33</v>
       </c>
     </row>
     <row r="816">
@@ -32301,7 +32323,7 @@
         <v>4</v>
       </c>
       <c r="I817" t="n">
-        <v>12.31</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="818">
@@ -32340,7 +32362,7 @@
         <v>16</v>
       </c>
       <c r="I818" t="n">
-        <v>16.72</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="819">
@@ -32379,7 +32401,7 @@
         <v>0</v>
       </c>
       <c r="I819" t="n">
-        <v>5.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="820">
@@ -32418,7 +32440,7 @@
         <v>7</v>
       </c>
       <c r="I820" t="n">
-        <v>27.72</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="821">
@@ -32457,7 +32479,7 @@
         <v>10</v>
       </c>
       <c r="I821" t="n">
-        <v>22.38</v>
+        <v>6.99</v>
       </c>
     </row>
     <row r="822">
@@ -32496,7 +32518,7 @@
         <v>16</v>
       </c>
       <c r="I822" t="n">
-        <v>17.71</v>
+        <v>9.140000000000001</v>
       </c>
     </row>
     <row r="823">
@@ -32535,7 +32557,7 @@
         <v>6</v>
       </c>
       <c r="I823" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="824">
@@ -32574,7 +32596,7 @@
         <v>9</v>
       </c>
       <c r="I824" t="n">
-        <v>19.31</v>
+        <v>6.21</v>
       </c>
     </row>
     <row r="825">
@@ -32652,7 +32674,7 @@
         <v>10</v>
       </c>
       <c r="I826" t="n">
-        <v>8.51</v>
+        <v>7.09</v>
       </c>
     </row>
     <row r="827">
@@ -32730,7 +32752,7 @@
         <v>1</v>
       </c>
       <c r="I828" t="n">
-        <v>52.38</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="829">
@@ -32769,7 +32791,7 @@
         <v>1</v>
       </c>
       <c r="I829" t="n">
-        <v>150</v>
+        <v>50</v>
       </c>
     </row>
     <row r="830">
@@ -32808,7 +32830,7 @@
         <v>9</v>
       </c>
       <c r="I830" t="n">
-        <v>8.18</v>
+        <v>5.66</v>
       </c>
     </row>
     <row r="831">
@@ -32847,7 +32869,7 @@
         <v>15</v>
       </c>
       <c r="I831" t="n">
-        <v>14.29</v>
+        <v>10.71</v>
       </c>
     </row>
     <row r="832">
@@ -32886,7 +32908,7 @@
         <v>4</v>
       </c>
       <c r="I832" t="n">
-        <v>10.34</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="833">
@@ -32925,7 +32947,7 @@
         <v>1</v>
       </c>
       <c r="I833" t="n">
-        <v>5.97</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="834">
@@ -32964,7 +32986,7 @@
         <v>1</v>
       </c>
       <c r="I834" t="n">
-        <v>13.25</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="835">
@@ -33003,7 +33025,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836">
@@ -33042,7 +33064,7 @@
         <v>1</v>
       </c>
       <c r="I836" t="n">
-        <v>3.26</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="837">
@@ -33081,7 +33103,7 @@
         <v>3</v>
       </c>
       <c r="I837" t="n">
-        <v>11.94</v>
+        <v>4.48</v>
       </c>
     </row>
     <row r="838">
@@ -33120,7 +33142,7 @@
         <v>0</v>
       </c>
       <c r="I838" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839">
@@ -33159,7 +33181,7 @@
         <v>0</v>
       </c>
       <c r="I839" t="n">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840">
@@ -33198,7 +33220,7 @@
         <v>0</v>
       </c>
       <c r="I840" t="n">
-        <v>5.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841">
@@ -33237,7 +33259,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="n">
-        <v>7.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842">
@@ -33276,7 +33298,7 @@
         <v>1</v>
       </c>
       <c r="I842" t="n">
-        <v>13.95</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="843">
@@ -33315,7 +33337,7 @@
         <v>4</v>
       </c>
       <c r="I843" t="n">
-        <v>15.79</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="844">
@@ -33354,7 +33376,7 @@
         <v>3</v>
       </c>
       <c r="I844" t="n">
-        <v>17.31</v>
+        <v>5.77</v>
       </c>
     </row>
     <row r="845">
@@ -33393,7 +33415,7 @@
         <v>2</v>
       </c>
       <c r="I845" t="n">
-        <v>12.28</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="846">
@@ -33432,7 +33454,7 @@
         <v>9</v>
       </c>
       <c r="I846" t="n">
-        <v>27.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="847">
@@ -33510,7 +33532,7 @@
         <v>1</v>
       </c>
       <c r="I848" t="n">
-        <v>3.64</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="849">
@@ -33549,7 +33571,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850">
@@ -33588,7 +33610,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="851">
@@ -33666,7 +33688,7 @@
         <v>3</v>
       </c>
       <c r="I852" t="n">
-        <v>17.5</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="853">
@@ -33705,7 +33727,7 @@
         <v>6</v>
       </c>
       <c r="I853" t="n">
-        <v>17.11</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="854">
@@ -33744,7 +33766,7 @@
         <v>3</v>
       </c>
       <c r="I854" t="n">
-        <v>11.11</v>
+        <v>6.67</v>
       </c>
     </row>
     <row r="855">
@@ -33822,7 +33844,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="n">
-        <v>2.38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857">
@@ -33861,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="n">
-        <v>3.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858">
@@ -33900,7 +33922,7 @@
         <v>7</v>
       </c>
       <c r="I858" t="n">
-        <v>14.35</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="859">
@@ -34056,7 +34078,7 @@
         <v>2</v>
       </c>
       <c r="I862" t="n">
-        <v>15.79</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="863">
@@ -34134,7 +34156,7 @@
         <v>6</v>
       </c>
       <c r="I864" t="n">
-        <v>7.74</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="865">
@@ -34329,7 +34351,7 @@
         <v>5</v>
       </c>
       <c r="I869" t="n">
-        <v>5.71</v>
+        <v>4.76</v>
       </c>
     </row>
     <row r="870">
@@ -34445,8 +34467,10 @@
       <c r="H872" t="n">
         <v>1</v>
       </c>
-      <c r="I872" t="n">
-        <v>0</v>
+      <c r="I872" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="873">
@@ -34524,7 +34548,7 @@
         <v>1</v>
       </c>
       <c r="I874" t="n">
-        <v>6.25</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="875">
@@ -34602,7 +34626,7 @@
         <v>6</v>
       </c>
       <c r="I876" t="n">
-        <v>26.26</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="877">
@@ -34641,7 +34665,7 @@
         <v>5</v>
       </c>
       <c r="I877" t="n">
-        <v>9.26</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="878">
@@ -34758,7 +34782,7 @@
         <v>5</v>
       </c>
       <c r="I880" t="n">
-        <v>10.29</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="881">
@@ -34797,7 +34821,7 @@
         <v>3</v>
       </c>
       <c r="I881" t="n">
-        <v>18.18</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="882">
@@ -34914,7 +34938,7 @@
         <v>4</v>
       </c>
       <c r="I884" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="885">
@@ -34953,7 +34977,7 @@
         <v>1</v>
       </c>
       <c r="I885" t="n">
-        <v>5.13</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="886">
@@ -35031,7 +35055,7 @@
         <v>2</v>
       </c>
       <c r="I887" t="n">
-        <v>11.54</v>
+        <v>7.69</v>
       </c>
     </row>
     <row r="888">
@@ -35070,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="889">
@@ -35186,9 +35210,7 @@
       <c r="H891" t="n">
         <v>0</v>
       </c>
-      <c r="I891" t="n">
-        <v>0</v>
-      </c>
+      <c r="I891" t="inlineStr"/>
     </row>
     <row r="892">
       <c r="A892" t="n">
@@ -35226,7 +35248,7 @@
         <v>4</v>
       </c>
       <c r="I892" t="n">
-        <v>38.67</v>
+        <v>5.33</v>
       </c>
     </row>
     <row r="893">
@@ -35264,9 +35286,7 @@
       <c r="H893" t="n">
         <v>0</v>
       </c>
-      <c r="I893" t="n">
-        <v>0</v>
-      </c>
+      <c r="I893" t="inlineStr"/>
     </row>
     <row r="894">
       <c r="A894" t="n">
@@ -35304,7 +35324,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895">
@@ -35343,7 +35363,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="896">
@@ -35381,9 +35401,7 @@
       <c r="H896" t="n">
         <v>0</v>
       </c>
-      <c r="I896" t="n">
-        <v>0</v>
-      </c>
+      <c r="I896" t="inlineStr"/>
     </row>
     <row r="897">
       <c r="A897" t="n">
@@ -35538,7 +35556,7 @@
         <v>4</v>
       </c>
       <c r="I900" t="n">
-        <v>41.94</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="901">
@@ -35576,9 +35594,7 @@
       <c r="H901" t="n">
         <v>0</v>
       </c>
-      <c r="I901" t="n">
-        <v>0</v>
-      </c>
+      <c r="I901" t="inlineStr"/>
     </row>
     <row r="902">
       <c r="A902" t="n">
@@ -35616,7 +35632,7 @@
         <v>14</v>
       </c>
       <c r="I902" t="n">
-        <v>1.89</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="903">
@@ -35655,7 +35671,7 @@
         <v>2</v>
       </c>
       <c r="I903" t="n">
-        <v>6.98</v>
+        <v>4.65</v>
       </c>
     </row>
     <row r="904">
@@ -35694,7 +35710,7 @@
         <v>2</v>
       </c>
       <c r="I904" t="n">
-        <v>2.97</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="905">
@@ -35733,7 +35749,7 @@
         <v>10</v>
       </c>
       <c r="I905" t="n">
-        <v>9.93</v>
+        <v>6.62</v>
       </c>
     </row>
     <row r="906">
@@ -35772,7 +35788,7 @@
         <v>12</v>
       </c>
       <c r="I906" t="n">
-        <v>11.25</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="907">
@@ -35811,7 +35827,7 @@
         <v>3</v>
       </c>
       <c r="I907" t="n">
-        <v>5.26</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="908">
@@ -35850,7 +35866,7 @@
         <v>9</v>
       </c>
       <c r="I908" t="n">
-        <v>6.63</v>
+        <v>4.97</v>
       </c>
     </row>
     <row r="909">
@@ -35889,7 +35905,7 @@
         <v>13</v>
       </c>
       <c r="I909" t="n">
-        <v>1.8</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="910">
@@ -35928,7 +35944,7 @@
         <v>5</v>
       </c>
       <c r="I910" t="n">
-        <v>6.25</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="911">
@@ -36006,7 +36022,7 @@
         <v>5</v>
       </c>
       <c r="I912" t="n">
-        <v>2.58</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="913">
@@ -36045,7 +36061,7 @@
         <v>12</v>
       </c>
       <c r="I913" t="n">
-        <v>2.04</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="914">
@@ -36084,7 +36100,7 @@
         <v>2</v>
       </c>
       <c r="I914" t="n">
-        <v>4.26</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="915">
@@ -36201,7 +36217,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918">
@@ -36240,7 +36256,7 @@
         <v>0</v>
       </c>
       <c r="I918" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919">
@@ -36279,7 +36295,7 @@
         <v>2</v>
       </c>
       <c r="I919" t="n">
-        <v>7.32</v>
+        <v>4.88</v>
       </c>
     </row>
     <row r="920">
@@ -36318,7 +36334,7 @@
         <v>1</v>
       </c>
       <c r="I920" t="n">
-        <v>5.21</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="921">
@@ -36357,7 +36373,7 @@
         <v>7</v>
       </c>
       <c r="I921" t="n">
-        <v>15.71</v>
+        <v>10</v>
       </c>
     </row>
     <row r="922">
@@ -36396,7 +36412,7 @@
         <v>1</v>
       </c>
       <c r="I922" t="n">
-        <v>2.82</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="923">
@@ -36435,7 +36451,7 @@
         <v>1</v>
       </c>
       <c r="I923" t="n">
-        <v>5.71</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="924">
@@ -36474,7 +36490,7 @@
         <v>8</v>
       </c>
       <c r="I924" t="n">
-        <v>22.92</v>
+        <v>16.67</v>
       </c>
     </row>
     <row r="925">
@@ -36513,7 +36529,7 @@
         <v>0</v>
       </c>
       <c r="I925" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="926">
@@ -36591,7 +36607,7 @@
         <v>0</v>
       </c>
       <c r="I927" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="928">
@@ -36629,9 +36645,7 @@
       <c r="H928" t="n">
         <v>0</v>
       </c>
-      <c r="I928" t="n">
-        <v>0</v>
-      </c>
+      <c r="I928" t="inlineStr"/>
     </row>
     <row r="929">
       <c r="A929" t="n">
@@ -36669,7 +36683,7 @@
         <v>2</v>
       </c>
       <c r="I929" t="n">
-        <v>9.23</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="930">
@@ -36708,7 +36722,7 @@
         <v>2</v>
       </c>
       <c r="I930" t="n">
-        <v>16.22</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="931">
@@ -36825,7 +36839,7 @@
         <v>7</v>
       </c>
       <c r="I933" t="n">
-        <v>12.82</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="934">
@@ -36864,7 +36878,7 @@
         <v>2</v>
       </c>
       <c r="I934" t="n">
-        <v>9.09</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="935">
@@ -36942,7 +36956,7 @@
         <v>1</v>
       </c>
       <c r="I936" t="n">
-        <v>7.94</v>
+        <v>1.59</v>
       </c>
     </row>
     <row r="937">
@@ -37020,7 +37034,7 @@
         <v>1</v>
       </c>
       <c r="I938" t="n">
-        <v>6.45</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="939">
@@ -37098,7 +37112,7 @@
         <v>2</v>
       </c>
       <c r="I940" t="n">
-        <v>36.36</v>
+        <v>18.18</v>
       </c>
     </row>
     <row r="941">
@@ -37176,7 +37190,7 @@
         <v>2</v>
       </c>
       <c r="I942" t="n">
-        <v>26.17</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="943">
@@ -37215,7 +37229,7 @@
         <v>8</v>
       </c>
       <c r="I943" t="n">
-        <v>31.79</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="944">
@@ -37254,7 +37268,7 @@
         <v>5</v>
       </c>
       <c r="I944" t="n">
-        <v>14.56</v>
+        <v>4.85</v>
       </c>
     </row>
     <row r="945">
@@ -37293,7 +37307,7 @@
         <v>3</v>
       </c>
       <c r="I945" t="n">
-        <v>16.07</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="946">
@@ -37371,7 +37385,7 @@
         <v>3</v>
       </c>
       <c r="I947" t="n">
-        <v>8.77</v>
+        <v>5.26</v>
       </c>
     </row>
     <row r="948">
@@ -37527,7 +37541,7 @@
         <v>13</v>
       </c>
       <c r="I951" t="n">
-        <v>18.29</v>
+        <v>15.85</v>
       </c>
     </row>
     <row r="952">
@@ -37566,7 +37580,7 @@
         <v>0</v>
       </c>
       <c r="I952" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="953">
@@ -37605,7 +37619,7 @@
         <v>1</v>
       </c>
       <c r="I953" t="n">
-        <v>4.26</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="954">
@@ -37722,7 +37736,7 @@
         <v>9</v>
       </c>
       <c r="I956" t="n">
-        <v>3.77</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="957">
@@ -37839,7 +37853,7 @@
         <v>13</v>
       </c>
       <c r="I959" t="n">
-        <v>8.68</v>
+        <v>5.94</v>
       </c>
     </row>
     <row r="960">
@@ -38033,9 +38047,7 @@
       <c r="H964" t="n">
         <v>0</v>
       </c>
-      <c r="I964" t="n">
-        <v>0</v>
-      </c>
+      <c r="I964" t="inlineStr"/>
     </row>
     <row r="965">
       <c r="A965" t="n">
@@ -38073,7 +38085,7 @@
         <v>3</v>
       </c>
       <c r="I965" t="n">
-        <v>1.43</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="966">
@@ -38268,7 +38280,7 @@
         <v>1</v>
       </c>
       <c r="I970" t="n">
-        <v>21.43</v>
+        <v>7.14</v>
       </c>
     </row>
     <row r="971">
@@ -38385,7 +38397,7 @@
         <v>1</v>
       </c>
       <c r="I973" t="n">
-        <v>12.5</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="974">
@@ -38424,7 +38436,7 @@
         <v>1</v>
       </c>
       <c r="I974" t="n">
-        <v>13.51</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="975">
@@ -38502,7 +38514,7 @@
         <v>0</v>
       </c>
       <c r="I976" t="n">
-        <v>3.33</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977">
@@ -38580,7 +38592,7 @@
         <v>5</v>
       </c>
       <c r="I978" t="n">
-        <v>23.33</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="979">
@@ -38619,7 +38631,7 @@
         <v>5</v>
       </c>
       <c r="I979" t="n">
-        <v>10.1</v>
+        <v>5.05</v>
       </c>
     </row>
     <row r="980">
@@ -38658,7 +38670,7 @@
         <v>4</v>
       </c>
       <c r="I980" t="n">
-        <v>24.14</v>
+        <v>13.79</v>
       </c>
     </row>
     <row r="981">
@@ -38814,7 +38826,7 @@
         <v>0</v>
       </c>
       <c r="I984" t="n">
-        <v>66.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="985">
@@ -38853,7 +38865,7 @@
         <v>6</v>
       </c>
       <c r="I985" t="n">
-        <v>3.44</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="986">
@@ -38931,7 +38943,7 @@
         <v>10</v>
       </c>
       <c r="I987" t="n">
-        <v>3.69</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="988">
@@ -39009,7 +39021,7 @@
         <v>6</v>
       </c>
       <c r="I989" t="n">
-        <v>3.29</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="990">
@@ -39087,7 +39099,7 @@
         <v>10</v>
       </c>
       <c r="I991" t="n">
-        <v>4.7</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="992">
@@ -39126,7 +39138,7 @@
         <v>0</v>
       </c>
       <c r="I992" t="n">
-        <v>2.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="993">
@@ -39165,7 +39177,7 @@
         <v>1</v>
       </c>
       <c r="I993" t="n">
-        <v>11.67</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="994">
@@ -39243,7 +39255,7 @@
         <v>8</v>
       </c>
       <c r="I995" t="n">
-        <v>6.44</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="996">
@@ -39282,7 +39294,7 @@
         <v>17</v>
       </c>
       <c r="I996" t="n">
-        <v>15.73</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="997">
@@ -39360,7 +39372,7 @@
         <v>3</v>
       </c>
       <c r="I998" t="n">
-        <v>15.79</v>
+        <v>7.89</v>
       </c>
     </row>
     <row r="999">
@@ -39399,7 +39411,7 @@
         <v>8</v>
       </c>
       <c r="I999" t="n">
-        <v>10.88</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="1000">
@@ -39516,7 +39528,7 @@
         <v>4</v>
       </c>
       <c r="I1002" t="n">
-        <v>8.109999999999999</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="1003">
@@ -39594,7 +39606,7 @@
         <v>9</v>
       </c>
       <c r="I1004" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
     </row>
     <row r="1005">
@@ -39671,8 +39683,10 @@
       <c r="H1006" t="n">
         <v>1</v>
       </c>
-      <c r="I1006" t="n">
-        <v>0</v>
+      <c r="I1006" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1007">
@@ -39710,8 +39724,10 @@
       <c r="H1007" t="n">
         <v>1</v>
       </c>
-      <c r="I1007" t="n">
-        <v>0</v>
+      <c r="I1007" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="1008">
@@ -39789,7 +39805,7 @@
         <v>3</v>
       </c>
       <c r="I1009" t="n">
-        <v>8.25</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="1010">
@@ -39867,7 +39883,7 @@
         <v>3</v>
       </c>
       <c r="I1011" t="n">
-        <v>7.89</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="1012">
@@ -39984,7 +40000,7 @@
         <v>2</v>
       </c>
       <c r="I1014" t="n">
-        <v>3.49</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="1015">
@@ -40023,7 +40039,7 @@
         <v>0</v>
       </c>
       <c r="I1015" t="n">
-        <v>7.69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1016">
@@ -40061,9 +40077,7 @@
       <c r="H1016" t="n">
         <v>0</v>
       </c>
-      <c r="I1016" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1016" t="inlineStr"/>
     </row>
     <row r="1017">
       <c r="A1017" t="n">
@@ -40101,7 +40115,7 @@
         <v>0</v>
       </c>
       <c r="I1017" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1018">
@@ -40140,7 +40154,7 @@
         <v>18</v>
       </c>
       <c r="I1018" t="n">
-        <v>10.48</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="1019">
@@ -40296,7 +40310,7 @@
         <v>11</v>
       </c>
       <c r="I1022" t="n">
-        <v>5.14</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="1023">
@@ -40374,7 +40388,7 @@
         <v>14</v>
       </c>
       <c r="I1024" t="n">
-        <v>8.949999999999999</v>
+        <v>7.37</v>
       </c>
     </row>
     <row r="1025">
@@ -40452,7 +40466,7 @@
         <v>9</v>
       </c>
       <c r="I1026" t="n">
-        <v>5.36</v>
+        <v>4.02</v>
       </c>
     </row>
     <row r="1027">
@@ -40530,7 +40544,7 @@
         <v>11</v>
       </c>
       <c r="I1028" t="n">
-        <v>6.83</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="1029">
@@ -40569,7 +40583,7 @@
         <v>13</v>
       </c>
       <c r="I1029" t="n">
-        <v>6.16</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="1030">
@@ -40608,7 +40622,7 @@
         <v>1</v>
       </c>
       <c r="I1030" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="1031">
@@ -40647,7 +40661,7 @@
         <v>15</v>
       </c>
       <c r="I1031" t="n">
-        <v>10.31</v>
+        <v>5.73</v>
       </c>
     </row>
     <row r="1032">
@@ -40686,7 +40700,7 @@
         <v>8</v>
       </c>
       <c r="I1032" t="n">
-        <v>3.96</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="1033">
@@ -40803,7 +40817,7 @@
         <v>16</v>
       </c>
       <c r="I1035" t="n">
-        <v>11.24</v>
+        <v>8.99</v>
       </c>
     </row>
     <row r="1036">
@@ -40881,7 +40895,7 @@
         <v>2</v>
       </c>
       <c r="I1037" t="n">
-        <v>61.9</v>
+        <v>9.52</v>
       </c>
     </row>
     <row r="1038">
@@ -40959,7 +40973,7 @@
         <v>1</v>
       </c>
       <c r="I1039" t="n">
-        <v>77.78</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="1040">
@@ -40998,7 +41012,7 @@
         <v>2</v>
       </c>
       <c r="I1040" t="n">
-        <v>16.67</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="1041">
@@ -41114,9 +41128,7 @@
       <c r="H1043" t="n">
         <v>0</v>
       </c>
-      <c r="I1043" t="n">
-        <v>0</v>
-      </c>
+      <c r="I1043" t="inlineStr"/>
     </row>
     <row r="1044">
       <c r="A1044" t="n">
@@ -41154,7 +41166,7 @@
         <v>3</v>
       </c>
       <c r="I1044" t="n">
-        <v>57.5</v>
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
